--- a/lab3/SaveData.xlsx
+++ b/lab3/SaveData.xlsx
@@ -58,8 +58,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -361,14 +362,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -377,42 +378,802 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="B2">
-        <v>1.0800838684548615</v>
+        <v>-1.9240178317131837</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1.5</v>
+        <v>-2.9393939393939394</v>
       </c>
       <c r="B3">
-        <v>1.6752576871346072</v>
+        <v>-1.9411649723666022</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2</v>
+        <v>-2.8787878787878789</v>
       </c>
       <c r="B4">
-        <v>2.5198421691942481</v>
+        <v>-1.959103237263486</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2.5</v>
+        <v>-2.8181818181818183</v>
       </c>
       <c r="B5">
-        <v>2.0957204544287662</v>
+        <v>-1.9779137604699275</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>3</v>
+        <v>-2.7575757575757578</v>
       </c>
       <c r="B6">
-        <v>1.9240178317131837</v>
+        <v>-1.997692143938288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>-2.6969696969696972</v>
+      </c>
+      <c r="B7">
+        <v>-2.0185523923754367</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>-2.6363636363636367</v>
+      </c>
+      <c r="B8">
+        <v>-2.0406323606997105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>-2.5757575757575761</v>
+      </c>
+      <c r="B9">
+        <v>-2.0641015000780216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>-2.5151515151515156</v>
+      </c>
+      <c r="B10">
+        <v>-2.0891722267245285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>-2.454545454545455</v>
+      </c>
+      <c r="B11">
+        <v>-2.1161172552131413</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>-2.3939393939393945</v>
+      </c>
+      <c r="B12">
+        <v>-2.1452972887479183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>-2.3333333333333339</v>
+      </c>
+      <c r="B13">
+        <v>-2.177207930944951</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>-2.2727272727272734</v>
+      </c>
+      <c r="B14">
+        <v>-2.2125654689042098</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>-2.2121212121212128</v>
+      </c>
+      <c r="B15">
+        <v>-2.25248091174642</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>-2.1515151515151523</v>
+      </c>
+      <c r="B16">
+        <v>-2.2988707520460379</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>-2.0909090909090917</v>
+      </c>
+      <c r="B17">
+        <v>-2.3556984212204828</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>-2.0303030303030312</v>
+      </c>
+      <c r="B18">
+        <v>-2.4353546270118276</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>-1.9696969696969706</v>
+      </c>
+      <c r="B19">
+        <v>-2.4099015668395931</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>-1.9090909090909101</v>
+      </c>
+      <c r="B20">
+        <v>-2.2793366431491764</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>-1.8484848484848495</v>
+      </c>
+      <c r="B21">
+        <v>-2.1715924587697648</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>-1.787878787878789</v>
+      </c>
+      <c r="B22">
+        <v>-2.0742730922569654</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>-1.7272727272727284</v>
+      </c>
+      <c r="B23">
+        <v>-1.9834098751568252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>-1.6666666666666679</v>
+      </c>
+      <c r="B24">
+        <v>-1.8970810450162088</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>-1.6060606060606073</v>
+      </c>
+      <c r="B25">
+        <v>-1.814170280309173</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>-1.5454545454545467</v>
+      </c>
+      <c r="B26">
+        <v>-1.7339559290894266</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>-1.4848484848484862</v>
+      </c>
+      <c r="B27">
+        <v>-1.6559369602525364</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>-1.4242424242424256</v>
+      </c>
+      <c r="B28">
+        <v>-1.5797471699174239</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>-1.3636363636363651</v>
+      </c>
+      <c r="B29">
+        <v>-1.5051082586888274</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>-1.3030303030303045</v>
+      </c>
+      <c r="B30">
+        <v>-1.4318021299543049</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>-1.242424242424244</v>
+      </c>
+      <c r="B31">
+        <v>-1.3596535445886986</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>-1.1818181818181834</v>
+      </c>
+      <c r="B32">
+        <v>-1.2885187395419508</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>-1.1212121212121229</v>
+      </c>
+      <c r="B33">
+        <v>-1.2182776684703132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>-1.0606060606060623</v>
+      </c>
+      <c r="B34">
+        <v>-1.1488285401328673</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>-1.0000000000000018</v>
+      </c>
+      <c r="B35">
+        <v>-1.0800838684548637</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>-0.93939393939394122</v>
+      </c>
+      <c r="B36">
+        <v>-1.0119675482180346</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>-0.87878787878788067</v>
+      </c>
+      <c r="B37">
+        <v>-0.94441264523406621</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>-0.81818181818182012</v>
+      </c>
+      <c r="B38">
+        <v>-0.87735969574383099</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>-0.75757575757575957</v>
+      </c>
+      <c r="B39">
+        <v>-0.810755376030313</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>-0.69696969696969902</v>
+      </c>
+      <c r="B40">
+        <v>-0.74455144588271538</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>-0.63636363636363846</v>
+      </c>
+      <c r="B41">
+        <v>-0.67870389770834105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>-0.57575757575757791</v>
+      </c>
+      <c r="B42">
+        <v>-0.61317226209957276</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>-0.51515151515151736</v>
+      </c>
+      <c r="B43">
+        <v>-0.54791903375370588</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>-0.45454545454545675</v>
+      </c>
+      <c r="B44">
+        <v>-0.48290919081588002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>-0.39393939393939614</v>
+      </c>
+      <c r="B45">
+        <v>-0.4181097872415922</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>-0.33333333333333554</v>
+      </c>
+      <c r="B46">
+        <v>-0.35348960247991768</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>-0.27272727272727493</v>
+      </c>
+      <c r="B47">
+        <v>-0.2890188362064714</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>-0.21212121212121432</v>
+      </c>
+      <c r="B48">
+        <v>-0.22466883835221219</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>-0.15151515151515371</v>
+      </c>
+      <c r="B49">
+        <v>-0.1604118665295482</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>-9.0909090909093104E-2</v>
+      </c>
+      <c r="B50">
+        <v>-9.6220864322076549E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>-3.0303030303032497E-2</v>
+      </c>
+      <c r="B51">
+        <v>-3.2069254897152399E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>3.0303030303028111E-2</v>
+      </c>
+      <c r="B52">
+        <v>3.2069254897147736E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>9.0909090909088719E-2</v>
+      </c>
+      <c r="B53">
+        <v>9.6220864322071886E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>0.15151515151514933</v>
+      </c>
+      <c r="B54">
+        <v>0.16041186652954376</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>0.21212121212120993</v>
+      </c>
+      <c r="B55">
+        <v>0.22466883835220774</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>0.27272727272727054</v>
+      </c>
+      <c r="B56">
+        <v>0.28901883620646673</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>0.33333333333333115</v>
+      </c>
+      <c r="B57">
+        <v>0.35348960247991323</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>0.39393939393939176</v>
+      </c>
+      <c r="B58">
+        <v>0.41810978724158732</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>0.45454545454545237</v>
+      </c>
+      <c r="B59">
+        <v>0.48290919081587513</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>0.51515151515151292</v>
+      </c>
+      <c r="B60">
+        <v>0.54791903375370099</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>0.57575757575757347</v>
+      </c>
+      <c r="B61">
+        <v>0.61317226209956788</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>0.63636363636363402</v>
+      </c>
+      <c r="B62">
+        <v>0.67870389770833617</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>0.69696969696969457</v>
+      </c>
+      <c r="B63">
+        <v>0.74455144588271049</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>0.75757575757575513</v>
+      </c>
+      <c r="B64">
+        <v>0.81075537603030789</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>0.81818181818181568</v>
+      </c>
+      <c r="B65">
+        <v>0.87735969574382611</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>0.87878787878787623</v>
+      </c>
+      <c r="B66">
+        <v>0.94441264523406132</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>0.93939393939393678</v>
+      </c>
+      <c r="B67">
+        <v>1.0119675482180295</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>0.99999999999999734</v>
+      </c>
+      <c r="B68">
+        <v>1.0800838684548584</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1.0606060606060579</v>
+      </c>
+      <c r="B69">
+        <v>1.148828540132862</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>1.1212121212121184</v>
+      </c>
+      <c r="B70">
+        <v>1.2182776684703083</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1.181818181818179</v>
+      </c>
+      <c r="B71">
+        <v>1.2885187395419453</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1.2424242424242395</v>
+      </c>
+      <c r="B72">
+        <v>1.359653544588693</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1.3030303030303001</v>
+      </c>
+      <c r="B73">
+        <v>1.4318021299542998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>1.3636363636363606</v>
+      </c>
+      <c r="B74">
+        <v>1.5051082586888218</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1.4242424242424212</v>
+      </c>
+      <c r="B75">
+        <v>1.5797471699174181</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>1.4848484848484818</v>
+      </c>
+      <c r="B76">
+        <v>1.6559369602525309</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>1.5454545454545423</v>
+      </c>
+      <c r="B77">
+        <v>1.7339559290894211</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>1.6060606060606029</v>
+      </c>
+      <c r="B78">
+        <v>1.8141702803091673</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>1.6666666666666634</v>
+      </c>
+      <c r="B79">
+        <v>1.8970810450162023</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>1.727272727272724</v>
+      </c>
+      <c r="B80">
+        <v>1.9834098751568183</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>1.7878787878787845</v>
+      </c>
+      <c r="B81">
+        <v>2.0742730922569588</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>1.8484848484848451</v>
+      </c>
+      <c r="B82">
+        <v>2.1715924587697568</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>1.9090909090909056</v>
+      </c>
+      <c r="B83">
+        <v>2.279336643149168</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>1.9696969696969662</v>
+      </c>
+      <c r="B84">
+        <v>2.409901566839582</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>2.0303030303030267</v>
+      </c>
+      <c r="B85">
+        <v>2.4353546270118351</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>2.0909090909090873</v>
+      </c>
+      <c r="B86">
+        <v>2.3556984212204872</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>2.1515151515151478</v>
+      </c>
+      <c r="B87">
+        <v>2.2988707520460414</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>2.2121212121212084</v>
+      </c>
+      <c r="B88">
+        <v>2.2524809117464231</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>2.2727272727272689</v>
+      </c>
+      <c r="B89">
+        <v>2.2125654689042125</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>2.3333333333333295</v>
+      </c>
+      <c r="B90">
+        <v>2.1772079309449532</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>2.39393939393939</v>
+      </c>
+      <c r="B91">
+        <v>2.1452972887479209</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>2.4545454545454506</v>
+      </c>
+      <c r="B92">
+        <v>2.1161172552131431</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>2.5151515151515111</v>
+      </c>
+      <c r="B93">
+        <v>2.0891722267245303</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>2.5757575757575717</v>
+      </c>
+      <c r="B94">
+        <v>2.0641015000780238</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>2.6363636363636322</v>
+      </c>
+      <c r="B95">
+        <v>2.0406323606997123</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>2.6969696969696928</v>
+      </c>
+      <c r="B96">
+        <v>2.0185523923754389</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>2.7575757575757534</v>
+      </c>
+      <c r="B97">
+        <v>1.9976921439382895</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>2.8181818181818139</v>
+      </c>
+      <c r="B98">
+        <v>1.9779137604699288</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>2.8787878787878745</v>
+      </c>
+      <c r="B99">
+        <v>1.9591032372634878</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>2.939393939393935</v>
+      </c>
+      <c r="B100">
+        <v>1.9411649723666029</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>2.9999999999999956</v>
+      </c>
+      <c r="B101">
+        <v>1.9240178317131851</v>
       </c>
     </row>
   </sheetData>
